--- a/Datasets/MTT_dactolisib bio rep 3.xlsx
+++ b/Datasets/MTT_dactolisib bio rep 3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0117675\Documents\DOCTORAAT\Resultaten\WP1 - Aa mutants\Stable ARK1 expressing mutants\Compound treatment\Sophie\Combinaties\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/myluong_vuong_kuleuven_be/Documents/PhD in KU Leuven/Projects/Side projects/Cancer Invitro/Report_Oncology_MLV/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71562EAA-3EBB-4BEE-A8D1-81D83A2C60C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{71562EAA-3EBB-4BEE-A8D1-81D83A2C60C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89CCA375-79F5-44C8-B5CD-50F02150717D}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{4D40AB4C-0E5B-4119-BE4D-0A076F68A0FF}"/>
+    <workbookView xWindow="44970" yWindow="0" windowWidth="11130" windowHeight="15585" xr2:uid="{4D40AB4C-0E5B-4119-BE4D-0A076F68A0FF}"/>
   </bookViews>
   <sheets>
     <sheet name="WT" sheetId="2" r:id="rId1"/>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCC44FA-4759-4837-B20F-196E41C7923C}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12:L12"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -718,282 +718,282 @@
         <v>91.625215925409492</v>
       </c>
     </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B14" s="2">
         <f>5/3</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="C15" s="2">
-        <f>B15/3</f>
+      <c r="C14" s="2">
+        <f>B14/3</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="D15" s="2">
-        <f t="shared" ref="D15:I15" si="2">C15/3</f>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14:I14" si="2">C14/3</f>
         <v>0.1851851851851852</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E14" s="2">
         <f t="shared" si="2"/>
         <v>6.1728395061728399E-2</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F14" s="2">
         <f t="shared" si="2"/>
         <v>2.0576131687242798E-2</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G14" s="2">
         <f t="shared" si="2"/>
         <v>6.8587105624142658E-3</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H14" s="2">
         <f t="shared" si="2"/>
         <v>2.2862368541380885E-3</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I14" s="2">
         <f t="shared" si="2"/>
         <v>7.6207895137936279E-4</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>16.496014806412131</v>
+      </c>
+      <c r="C15">
+        <v>20.508074867906505</v>
+      </c>
+      <c r="D15">
+        <v>26.785874205200148</v>
+      </c>
+      <c r="E15">
+        <v>35.159258485327918</v>
+      </c>
+      <c r="F15">
+        <v>46.17451267202005</v>
+      </c>
+      <c r="G15">
+        <v>66.888563837726494</v>
+      </c>
+      <c r="H15">
+        <v>77.366488551897078</v>
+      </c>
+      <c r="I15">
+        <v>84.459237589181768</v>
+      </c>
+      <c r="J15">
+        <v>109.30177020209557</v>
       </c>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>16.496014806412131</v>
+        <v>17.239320576733633</v>
       </c>
       <c r="C16">
-        <v>20.508074867906505</v>
+        <v>20.472252903071734</v>
       </c>
       <c r="D16">
-        <v>26.785874205200148</v>
+        <v>24.824621630496431</v>
       </c>
       <c r="E16">
-        <v>35.159258485327918</v>
+        <v>32.454700140302691</v>
       </c>
       <c r="F16">
-        <v>46.17451267202005</v>
+        <v>49.765664646705872</v>
       </c>
       <c r="G16">
-        <v>66.888563837726494</v>
+        <v>65.616884086092114</v>
       </c>
       <c r="H16">
-        <v>77.366488551897078</v>
+        <v>77.509776411236146</v>
       </c>
       <c r="I16">
-        <v>84.459237589181768</v>
+        <v>83.205468819964779</v>
       </c>
       <c r="J16">
-        <v>109.30177020209557</v>
+        <v>137.95934206991254</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17">
-        <v>17.239320576733633</v>
+        <v>18.009492820681213</v>
       </c>
       <c r="C17">
-        <v>20.472252903071734</v>
+        <v>20.185677184393562</v>
       </c>
       <c r="D17">
-        <v>24.824621630496431</v>
+        <v>24.976864981044208</v>
       </c>
       <c r="E17">
-        <v>32.454700140302691</v>
+        <v>28.138153377712765</v>
       </c>
       <c r="F17">
-        <v>49.765664646705872</v>
+        <v>56.231529299382068</v>
       </c>
       <c r="G17">
-        <v>65.616884086092114</v>
+        <v>56.365861667512462</v>
       </c>
       <c r="H17">
-        <v>77.509776411236146</v>
+        <v>99.083554732977106</v>
       </c>
       <c r="I17">
-        <v>83.205468819964779</v>
+        <v>79.569539389235487</v>
       </c>
       <c r="J17">
-        <v>137.95934206991254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>18.009492820681213</v>
-      </c>
-      <c r="C18">
-        <v>20.185677184393562</v>
-      </c>
-      <c r="D18">
-        <v>24.976864981044208</v>
-      </c>
-      <c r="E18">
-        <v>28.138153377712765</v>
-      </c>
-      <c r="F18">
-        <v>56.231529299382068</v>
-      </c>
-      <c r="G18">
-        <v>56.365861667512462</v>
-      </c>
-      <c r="H18">
-        <v>99.083554732977106</v>
-      </c>
-      <c r="I18">
-        <v>79.569539389235487</v>
-      </c>
-      <c r="J18">
         <v>120.94390877339623</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B19" s="2">
         <f>5/3</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="C20" s="2">
-        <f>B20/3</f>
+      <c r="C19" s="2">
+        <f>B19/3</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="D20" s="2">
-        <f t="shared" ref="D20:I20" si="3">C20/3</f>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:I19" si="3">C19/3</f>
         <v>0.1851851851851852</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E19" s="2">
         <f t="shared" si="3"/>
         <v>6.1728395061728399E-2</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F19" s="2">
         <f t="shared" si="3"/>
         <v>2.0576131687242798E-2</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G19" s="2">
         <f t="shared" si="3"/>
         <v>6.8587105624142658E-3</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H19" s="2">
         <f t="shared" si="3"/>
         <v>2.2862368541380885E-3</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I19" s="2">
         <f t="shared" si="3"/>
         <v>7.6207895137936279E-4</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>14.630743982494529</v>
+      </c>
+      <c r="C20">
+        <v>17.527352297592998</v>
+      </c>
+      <c r="D20">
+        <v>21.761487964989058</v>
+      </c>
+      <c r="E20">
+        <v>34.455689277899346</v>
+      </c>
+      <c r="F20">
+        <v>55.306345733041582</v>
+      </c>
+      <c r="G20">
+        <v>82.836433260393889</v>
+      </c>
+      <c r="H20">
+        <v>65.842450765864342</v>
+      </c>
+      <c r="I20">
+        <v>114.43654266958426</v>
+      </c>
+      <c r="J20">
+        <v>125.07111597374181</v>
       </c>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21">
-        <v>14.630743982494529</v>
+        <v>17.4781181619256</v>
       </c>
       <c r="C21">
-        <v>17.527352297592998</v>
+        <v>26.660284463894975</v>
       </c>
       <c r="D21">
-        <v>21.761487964989058</v>
+        <v>27.907549234135669</v>
       </c>
       <c r="E21">
-        <v>34.455689277899346</v>
+        <v>38.451859956236326</v>
       </c>
       <c r="F21">
-        <v>55.306345733041582</v>
+        <v>59.491247264770244</v>
       </c>
       <c r="G21">
-        <v>82.836433260393889</v>
+        <v>86.766958424507663</v>
       </c>
       <c r="H21">
-        <v>65.842450765864342</v>
+        <v>111.03118161925603</v>
       </c>
       <c r="I21">
-        <v>114.43654266958426</v>
+        <v>110.2024070021882</v>
       </c>
       <c r="J21">
-        <v>125.07111597374181</v>
+        <v>116.56181619256019</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22">
-        <v>17.4781181619256</v>
+        <v>16.829868708971553</v>
       </c>
       <c r="C22">
-        <v>26.660284463894975</v>
+        <v>18.306892778993436</v>
       </c>
       <c r="D22">
-        <v>27.907549234135669</v>
+        <v>26.135120350109414</v>
       </c>
       <c r="E22">
-        <v>38.451859956236326</v>
+        <v>24.961706783369809</v>
       </c>
       <c r="F22">
-        <v>59.491247264770244</v>
+        <v>41.602844638949676</v>
       </c>
       <c r="G22">
-        <v>86.766958424507663</v>
+        <v>61.542669584245083</v>
       </c>
       <c r="H22">
-        <v>111.03118161925603</v>
+        <v>88.752735229759296</v>
       </c>
       <c r="I22">
-        <v>110.2024070021882</v>
+        <v>95.612691466083149</v>
       </c>
       <c r="J22">
-        <v>116.56181619256019</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23">
-        <v>16.829868708971553</v>
-      </c>
-      <c r="C23">
-        <v>18.306892778993436</v>
-      </c>
-      <c r="D23">
-        <v>26.135120350109414</v>
-      </c>
-      <c r="E23">
-        <v>24.961706783369809</v>
-      </c>
-      <c r="F23">
-        <v>41.602844638949676</v>
-      </c>
-      <c r="G23">
-        <v>61.542669584245083</v>
-      </c>
-      <c r="H23">
-        <v>88.752735229759296</v>
-      </c>
-      <c r="I23">
-        <v>95.612691466083149</v>
-      </c>
-      <c r="J23">
         <v>122.6586433260394</v>
       </c>
     </row>
@@ -1004,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538E4893-0DC7-424E-A4AB-DF4F9EB8F92B}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A13" sqref="A13:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1292,280 +1292,280 @@
         <v>73.516604585278827</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
         <f>5/3</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="C13" s="2">
-        <f>B13/3</f>
+      <c r="C14" s="2">
+        <f>B14/3</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="D13" s="2">
-        <f t="shared" ref="D13:I13" si="2">C13/3</f>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14:I14" si="2">C14/3</f>
         <v>0.1851851851851852</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E14" s="2">
         <f t="shared" si="2"/>
         <v>6.1728395061728399E-2</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F14" s="2">
         <f t="shared" si="2"/>
         <v>2.0576131687242798E-2</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G14" s="2">
         <f t="shared" si="2"/>
         <v>6.8587105624142658E-3</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H14" s="2">
         <f t="shared" si="2"/>
         <v>2.2862368541380885E-3</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I14" s="2">
         <f t="shared" si="2"/>
         <v>7.6207895137936279E-4</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <v>14.135471442703182</v>
-      </c>
-      <c r="C14">
-        <v>17.720102046129014</v>
-      </c>
-      <c r="D14">
-        <v>23.43676784505649</v>
-      </c>
-      <c r="E14">
-        <v>31.29327849221638</v>
-      </c>
-      <c r="F14">
-        <v>50.442546988077261</v>
-      </c>
-      <c r="G14">
-        <v>58.533347217160411</v>
-      </c>
-      <c r="H14">
-        <v>87.76487738845212</v>
-      </c>
-      <c r="I14">
-        <v>85.570364971104269</v>
-      </c>
-      <c r="J14">
-        <v>99.440308220961114</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15">
-        <v>13.401364086010309</v>
+        <v>14.135471442703182</v>
       </c>
       <c r="C15">
-        <v>16.033217056281565</v>
+        <v>17.720102046129014</v>
       </c>
       <c r="D15">
-        <v>22.929140417556102</v>
+        <v>23.43676784505649</v>
       </c>
       <c r="E15">
-        <v>36.018118394335396</v>
+        <v>31.29327849221638</v>
       </c>
       <c r="F15">
-        <v>59.642317904930501</v>
+        <v>50.442546988077261</v>
       </c>
       <c r="G15">
-        <v>96.949028999843819</v>
+        <v>58.533347217160411</v>
       </c>
       <c r="H15">
-        <v>125.86036340917373</v>
+        <v>87.76487738845212</v>
       </c>
       <c r="I15">
-        <v>133.02181496329464</v>
+        <v>85.570364971104269</v>
       </c>
       <c r="J15">
-        <v>136.95007028687459</v>
+        <v>99.440308220961114</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>13.401364086010309</v>
+      </c>
+      <c r="C16">
+        <v>16.033217056281565</v>
+      </c>
+      <c r="D16">
+        <v>22.929140417556102</v>
+      </c>
+      <c r="E16">
+        <v>36.018118394335396</v>
+      </c>
+      <c r="F16">
+        <v>59.642317904930501</v>
+      </c>
+      <c r="G16">
+        <v>96.949028999843819</v>
+      </c>
+      <c r="H16">
+        <v>125.86036340917373</v>
+      </c>
+      <c r="I16">
+        <v>133.02181496329464</v>
+      </c>
+      <c r="J16">
+        <v>136.95007028687459</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>13.56536679335659</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>21.945124173478423</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>20.75805695840058</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>26.287291091789456</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>58.205341802467849</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>83.992815119487688</v>
       </c>
-      <c r="H16">
+      <c r="H17">
         <v>108.81189149789139</v>
       </c>
-      <c r="I16">
+      <c r="I17">
         <v>134.39631384391109</v>
       </c>
-      <c r="J16">
+      <c r="J17">
         <v>128.1485916592909</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B19" s="2">
         <f>5/3</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="C18" s="2">
-        <f>B18/3</f>
+      <c r="C19" s="2">
+        <f>B19/3</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="D18" s="2">
-        <f t="shared" ref="D18:I18" si="3">C18/3</f>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:I19" si="3">C19/3</f>
         <v>0.1851851851851852</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E19" s="2">
         <f t="shared" si="3"/>
         <v>6.1728395061728399E-2</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F19" s="2">
         <f t="shared" si="3"/>
         <v>2.0576131687242798E-2</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G19" s="2">
         <f t="shared" si="3"/>
         <v>6.8587105624142658E-3</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H19" s="2">
         <f t="shared" si="3"/>
         <v>2.2862368541380885E-3</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I19" s="2">
         <f t="shared" si="3"/>
         <v>7.6207895137936279E-4</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19">
-        <v>12.916536904391155</v>
-      </c>
-      <c r="C19">
-        <v>18.958268452195579</v>
-      </c>
-      <c r="D19">
-        <v>22.69542198691996</v>
-      </c>
-      <c r="E19">
-        <v>30.527872936779822</v>
-      </c>
-      <c r="F19">
-        <v>52.686079103083152</v>
-      </c>
-      <c r="G19">
-        <v>101.0977888508253</v>
-      </c>
-      <c r="H19">
-        <v>119.14512612893179</v>
-      </c>
-      <c r="I19">
-        <v>131.43880411086889</v>
-      </c>
-      <c r="J19">
-        <v>155.81594518841484</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20">
-        <v>14.022111491747118</v>
+        <v>12.916536904391155</v>
       </c>
       <c r="C20">
-        <v>22.025848645281844</v>
+        <v>18.958268452195579</v>
       </c>
       <c r="D20">
-        <v>19.386483961382748</v>
+        <v>22.69542198691996</v>
       </c>
       <c r="E20">
-        <v>27.250077857365305</v>
+        <v>30.527872936779822</v>
       </c>
       <c r="F20">
-        <v>66.497975708502025</v>
+        <v>52.686079103083152</v>
       </c>
       <c r="G20">
-        <v>96.05263157894737</v>
+        <v>101.0977888508253</v>
       </c>
       <c r="H20">
-        <v>165.72718779196515</v>
+        <v>119.14512612893179</v>
       </c>
       <c r="I20">
-        <v>151.67393335409528</v>
+        <v>131.43880411086889</v>
       </c>
       <c r="J20">
-        <v>135.80660230457801</v>
+        <v>155.81594518841484</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>14.022111491747118</v>
+      </c>
+      <c r="C21">
+        <v>22.025848645281844</v>
+      </c>
+      <c r="D21">
+        <v>19.386483961382748</v>
+      </c>
+      <c r="E21">
+        <v>27.250077857365305</v>
+      </c>
+      <c r="F21">
+        <v>66.497975708502025</v>
+      </c>
+      <c r="G21">
+        <v>96.05263157894737</v>
+      </c>
+      <c r="H21">
+        <v>165.72718779196515</v>
+      </c>
+      <c r="I21">
+        <v>151.67393335409528</v>
+      </c>
+      <c r="J21">
+        <v>135.80660230457801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>13.625038928682653</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>18.631267517907197</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>22.851136717533478</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>33.540952974151352</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>67.985051385861112</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>88.62503892868267</v>
       </c>
-      <c r="H21">
+      <c r="H22">
         <v>96.792276549361574</v>
       </c>
-      <c r="I21">
+      <c r="I22">
         <v>100.55278729367798</v>
       </c>
-      <c r="J21">
+      <c r="J22">
         <v>95.538772967922768</v>
       </c>
     </row>
